--- a/LLM_Test/Summarised_output_for_model.xlsx
+++ b/LLM_Test/Summarised_output_for_model.xlsx
@@ -1,26 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssicsync\LLM_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royle\OneDrive\Desktop\newfolder\ssicsync\LLM_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904629A-A8F3-4F0D-8A74-A715454DF3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA8CF9-46D4-48E8-A19B-D086ABEF5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$88</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="582">
   <si>
     <t>PDF Name</t>
   </si>
@@ -1763,6 +1782,9 @@
   </si>
   <si>
     <t>investment holding company and the provision of motor vehicle evaluation and other related services</t>
+  </si>
+  <si>
+    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1816,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1817,13 +1839,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1841,6 +1877,448 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>UEN</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>197803023H</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>197501572K</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>197902587H</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>201413466E</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>199505699D</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>198600740M</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>200608233K</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>197702066M</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>197502257M</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>193800054G</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>199406212Z</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>197600666D</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>196200046K</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>199303293Z</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>196300316Z</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>197201771W</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>198303359D</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>198703851D</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>198403096C</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>197302229H</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>199000027E</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>196400096C</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>196700511H</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>198004601C</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>199903008M</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>197601387M</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>197100300Z</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>199408433W</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>196100003D</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>196800243H</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>198000348Z</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>196800298G</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>198700827C</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>196800526Z</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>197001177H</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>199300300W</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>196000096G</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>198001299R</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>198300104G</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>198700318G</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>199200075N</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>198904222M</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>198803293M</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>198804700N</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>199006289K</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>197301792W</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>198703979K</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>196900250M</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>200508494D</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>197802690R</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>197702861N</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>198303940Z</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>199004330K</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>196400050E</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>197600165Z</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>199905792R</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>197400888M</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>199806124N</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>198901967K</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>198701138Z</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>199604816E</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>199308462C</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>199407121D</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>199206653M</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>198103193M</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>199202071D</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>198300847M</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>199804583E</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>198201025C</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>196400348D</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>197200078R</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>199201623M</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>199201624D</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>197901237E</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>198701451M</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>199802208C</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>198201457Z</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>198000057W</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>197702806M</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>199802072R</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>198403771D</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>197100152R</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>198402886H</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>198100320K</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2130,21 +2608,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.42578125" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
     <col min="13" max="13" width="36.28515625" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,8 +2666,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2228,8 +2713,12 @@
       <c r="N2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>COUNTIF([1]Sheet1!$A:$A,D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2272,8 +2761,12 @@
       <c r="N3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>COUNTIF([1]Sheet1!$A:$A,D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2316,8 +2809,12 @@
       <c r="N4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f>COUNTIF([1]Sheet1!$A:$A,D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2351,8 +2848,12 @@
       <c r="N5" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>COUNTIF([1]Sheet1!$A:$A,D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2395,8 +2896,12 @@
       <c r="N6" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f>COUNTIF([1]Sheet1!$A:$A,D6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2430,8 +2935,12 @@
       <c r="N7" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f>COUNTIF([1]Sheet1!$A:$A,D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2474,8 +2983,12 @@
       <c r="N8" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f>COUNTIF([1]Sheet1!$A:$A,D8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2518,8 +3031,12 @@
       <c r="N9" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f>COUNTIF([1]Sheet1!$A:$A,D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2553,8 +3070,12 @@
       <c r="N10" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f>COUNTIF([1]Sheet1!$A:$A,D10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2588,8 +3109,12 @@
       <c r="N11" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f>COUNTIF([1]Sheet1!$A:$A,D11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2632,8 +3157,12 @@
       <c r="N12" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f>COUNTIF([1]Sheet1!$A:$A,D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2676,8 +3205,12 @@
       <c r="N13" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f>COUNTIF([1]Sheet1!$A:$A,D13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2711,8 +3244,12 @@
       <c r="N14" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f>COUNTIF([1]Sheet1!$A:$A,D14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2755,8 +3292,12 @@
       <c r="N15" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f>COUNTIF([1]Sheet1!$A:$A,D15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2799,8 +3340,12 @@
       <c r="N16" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f>COUNTIF([1]Sheet1!$A:$A,D16)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2843,8 +3388,12 @@
       <c r="N17" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f>COUNTIF([1]Sheet1!$A:$A,D17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2887,8 +3436,12 @@
       <c r="N18" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f>COUNTIF([1]Sheet1!$A:$A,D18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2931,8 +3484,12 @@
       <c r="N19" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f>COUNTIF([1]Sheet1!$A:$A,D19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2975,8 +3532,12 @@
       <c r="N20" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f>COUNTIF([1]Sheet1!$A:$A,D20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3019,8 +3580,12 @@
       <c r="N21" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f>COUNTIF([1]Sheet1!$A:$A,D21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3063,8 +3628,12 @@
       <c r="N22" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f>COUNTIF([1]Sheet1!$A:$A,D22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3107,8 +3676,12 @@
       <c r="N23" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f>COUNTIF([1]Sheet1!$A:$A,D23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3151,8 +3724,12 @@
       <c r="N24" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <f>COUNTIF([1]Sheet1!$A:$A,D24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3195,8 +3772,12 @@
       <c r="N25" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f>COUNTIF([1]Sheet1!$A:$A,D25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3239,8 +3820,12 @@
       <c r="N26" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <f>COUNTIF([1]Sheet1!$A:$A,D26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3283,8 +3868,12 @@
       <c r="N27" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f>COUNTIF([1]Sheet1!$A:$A,D27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3318,8 +3907,12 @@
       <c r="N28" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f>COUNTIF([1]Sheet1!$A:$A,D28)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3362,8 +3955,12 @@
       <c r="N29" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f>COUNTIF([1]Sheet1!$A:$A,D29)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3406,8 +4003,12 @@
       <c r="N30" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <f>COUNTIF([1]Sheet1!$A:$A,D30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3450,8 +4051,12 @@
       <c r="N31" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f>COUNTIF([1]Sheet1!$A:$A,D31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3494,8 +4099,12 @@
       <c r="N32" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <f>COUNTIF([1]Sheet1!$A:$A,D32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3538,8 +4147,12 @@
       <c r="N33" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f>COUNTIF([1]Sheet1!$A:$A,D33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3582,8 +4195,12 @@
       <c r="N34" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f>COUNTIF([1]Sheet1!$A:$A,D34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3626,8 +4243,12 @@
       <c r="N35" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f>COUNTIF([1]Sheet1!$A:$A,D35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3670,8 +4291,12 @@
       <c r="N36" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <f>COUNTIF([1]Sheet1!$A:$A,D36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3714,8 +4339,12 @@
       <c r="N37" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <f>COUNTIF([1]Sheet1!$A:$A,D37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3758,8 +4387,12 @@
       <c r="N38" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <f>COUNTIF([1]Sheet1!$A:$A,D38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3802,8 +4435,12 @@
       <c r="N39" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <f>COUNTIF([1]Sheet1!$A:$A,D39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3846,8 +4483,12 @@
       <c r="N40" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <f>COUNTIF([1]Sheet1!$A:$A,D40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3890,8 +4531,12 @@
       <c r="N41" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <f>COUNTIF([1]Sheet1!$A:$A,D41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3925,8 +4570,12 @@
       <c r="N42" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <f>COUNTIF([1]Sheet1!$A:$A,D42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3960,8 +4609,12 @@
       <c r="N43" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f>COUNTIF([1]Sheet1!$A:$A,D43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4004,8 +4657,12 @@
       <c r="N44" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f>COUNTIF([1]Sheet1!$A:$A,D44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4048,8 +4705,12 @@
       <c r="N45" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <f>COUNTIF([1]Sheet1!$A:$A,D45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4092,8 +4753,12 @@
       <c r="N46" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <f>COUNTIF([1]Sheet1!$A:$A,D46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4136,8 +4801,12 @@
       <c r="N47" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <f>COUNTIF([1]Sheet1!$A:$A,D47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4180,8 +4849,12 @@
       <c r="N48" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f>COUNTIF([1]Sheet1!$A:$A,D48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4224,8 +4897,12 @@
       <c r="N49" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49">
+        <f>COUNTIF([1]Sheet1!$A:$A,D49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4268,8 +4945,12 @@
       <c r="N50" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <f>COUNTIF([1]Sheet1!$A:$A,D50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4312,8 +4993,12 @@
       <c r="N51" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <f>COUNTIF([1]Sheet1!$A:$A,D51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4356,8 +5041,12 @@
       <c r="N52" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <f>COUNTIF([1]Sheet1!$A:$A,D52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4400,8 +5089,12 @@
       <c r="N53" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <f>COUNTIF([1]Sheet1!$A:$A,D53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4444,8 +5137,12 @@
       <c r="N54" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <f>COUNTIF([1]Sheet1!$A:$A,D54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4488,8 +5185,12 @@
       <c r="N55" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55">
+        <f>COUNTIF([1]Sheet1!$A:$A,D55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4532,8 +5233,12 @@
       <c r="N56" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <f>COUNTIF([1]Sheet1!$A:$A,D56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4567,8 +5272,12 @@
       <c r="N57" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <f>COUNTIF([1]Sheet1!$A:$A,D57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4611,8 +5320,12 @@
       <c r="N58" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <f>COUNTIF([1]Sheet1!$A:$A,D58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4655,8 +5368,12 @@
       <c r="N59" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <f>COUNTIF([1]Sheet1!$A:$A,D59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4699,8 +5416,12 @@
       <c r="N60" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <f>COUNTIF([1]Sheet1!$A:$A,D60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4743,8 +5464,12 @@
       <c r="N61" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <f>COUNTIF([1]Sheet1!$A:$A,D61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4787,8 +5512,12 @@
       <c r="N62" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <f>COUNTIF([1]Sheet1!$A:$A,D62)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4831,8 +5560,12 @@
       <c r="N63" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <f>COUNTIF([1]Sheet1!$A:$A,D63)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4875,8 +5608,12 @@
       <c r="N64" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <f>COUNTIF([1]Sheet1!$A:$A,D64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4919,8 +5656,12 @@
       <c r="N65" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <f>COUNTIF([1]Sheet1!$A:$A,D65)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4963,8 +5704,12 @@
       <c r="N66" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <f>COUNTIF([1]Sheet1!$A:$A,D66)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5007,8 +5752,12 @@
       <c r="N67" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <f>COUNTIF([1]Sheet1!$A:$A,D67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5051,8 +5800,12 @@
       <c r="N68" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <f>COUNTIF([1]Sheet1!$A:$A,D68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5095,8 +5848,12 @@
       <c r="N69" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <f>COUNTIF([1]Sheet1!$A:$A,D69)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5139,8 +5896,12 @@
       <c r="N70" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <f>COUNTIF([1]Sheet1!$A:$A,D70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5183,8 +5944,12 @@
       <c r="N71" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71">
+        <f>COUNTIF([1]Sheet1!$A:$A,D71)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5227,8 +5992,12 @@
       <c r="N72" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <f>COUNTIF([1]Sheet1!$A:$A,D72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5271,8 +6040,12 @@
       <c r="N73" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <f>COUNTIF([1]Sheet1!$A:$A,D73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5315,8 +6088,12 @@
       <c r="N74" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74">
+        <f>COUNTIF([1]Sheet1!$A:$A,D74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5359,8 +6136,12 @@
       <c r="N75" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <f>COUNTIF([1]Sheet1!$A:$A,D75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5403,8 +6184,12 @@
       <c r="N76" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <f>COUNTIF([1]Sheet1!$A:$A,D76)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5447,8 +6232,12 @@
       <c r="N77" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <f>COUNTIF([1]Sheet1!$A:$A,D77)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5491,8 +6280,12 @@
       <c r="N78" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <f>COUNTIF([1]Sheet1!$A:$A,D78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5535,8 +6328,12 @@
       <c r="N79" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <f>COUNTIF([1]Sheet1!$A:$A,D79)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5579,8 +6376,12 @@
       <c r="N80" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <f>COUNTIF([1]Sheet1!$A:$A,D80)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5614,8 +6415,12 @@
       <c r="N81" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <f>COUNTIF([1]Sheet1!$A:$A,D81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5658,8 +6463,12 @@
       <c r="N82" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82">
+        <f>COUNTIF([1]Sheet1!$A:$A,D82)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5702,8 +6511,12 @@
       <c r="N83" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <f>COUNTIF([1]Sheet1!$A:$A,D83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5746,8 +6559,12 @@
       <c r="N84" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <f>COUNTIF([1]Sheet1!$A:$A,D84)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5790,8 +6607,12 @@
       <c r="N85" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <f>COUNTIF([1]Sheet1!$A:$A,D85)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5834,8 +6655,12 @@
       <c r="N86" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <f>COUNTIF([1]Sheet1!$A:$A,D86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5878,8 +6703,12 @@
       <c r="N87" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87">
+        <f>COUNTIF([1]Sheet1!$A:$A,D87)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5922,8 +6751,14 @@
       <c r="N88" t="s">
         <v>580</v>
       </c>
+      <c r="O88">
+        <f>COUNTIF([1]Sheet1!$A:$A,D88)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LLM_Test/Summarised_output_for_model.xlsx
+++ b/LLM_Test/Summarised_output_for_model.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royle\OneDrive\Desktop\newfolder\ssicsync\LLM_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA8CF9-46D4-48E8-A19B-D086ABEF5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8694E652-5EE6-4A66-8B48-734EA5D8D186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="581">
   <si>
     <t>PDF Name</t>
   </si>
@@ -1782,9 +1779,6 @@
   </si>
   <si>
     <t>investment holding company and the provision of motor vehicle evaluation and other related services</t>
-  </si>
-  <si>
-    <t>Check</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1810,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1839,27 +1833,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1877,448 +1857,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>UEN</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>197803023H</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>197501572K</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>197902587H</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>201413466E</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>199505699D</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>198600740M</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>200608233K</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>197702066M</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>197502257M</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>193800054G</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>199406212Z</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>197600666D</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>196200046K</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>199303293Z</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>196300316Z</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>197201771W</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>198303359D</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>198703851D</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>198403096C</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>197302229H</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>199000027E</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>196400096C</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>196700511H</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>198004601C</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>199903008M</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>197601387M</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>197100300Z</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>199408433W</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>196100003D</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>196800243H</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>198000348Z</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>196800298G</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>198700827C</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>196800526Z</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>197001177H</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>199300300W</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>196000096G</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>198001299R</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>198300104G</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>198700318G</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>199200075N</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>198904222M</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>198803293M</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>198804700N</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>199006289K</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>197301792W</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>198703979K</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>196900250M</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>200508494D</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>197802690R</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>197702861N</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>198303940Z</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>199004330K</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>196400050E</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>197600165Z</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>199905792R</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>197400888M</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>199806124N</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>198901967K</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>198701138Z</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>199604816E</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>199308462C</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>199407121D</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>199206653M</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>198103193M</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>199202071D</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>198300847M</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>199804583E</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>198201025C</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>196400348D</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>197200078R</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>199201623M</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>199201624D</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>197901237E</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>198701451M</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>199802208C</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>198201457Z</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>198000057W</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>197702806M</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>199802072R</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>198403771D</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>197100152R</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>198402886H</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>198100320K</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2608,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2164,7 @@
     <col min="14" max="14" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2666,11 +2204,8 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2713,12 +2248,8 @@
       <c r="N2" t="s">
         <v>507</v>
       </c>
-      <c r="O2">
-        <f>COUNTIF([1]Sheet1!$A:$A,D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2761,12 +2292,8 @@
       <c r="N3" t="s">
         <v>508</v>
       </c>
-      <c r="O3">
-        <f>COUNTIF([1]Sheet1!$A:$A,D3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2809,12 +2336,8 @@
       <c r="N4" t="s">
         <v>509</v>
       </c>
-      <c r="O4">
-        <f>COUNTIF([1]Sheet1!$A:$A,D4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2848,12 +2371,8 @@
       <c r="N5" t="s">
         <v>510</v>
       </c>
-      <c r="O5">
-        <f>COUNTIF([1]Sheet1!$A:$A,D5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2896,12 +2415,8 @@
       <c r="N6" t="s">
         <v>511</v>
       </c>
-      <c r="O6">
-        <f>COUNTIF([1]Sheet1!$A:$A,D6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2935,12 +2450,8 @@
       <c r="N7" t="s">
         <v>510</v>
       </c>
-      <c r="O7">
-        <f>COUNTIF([1]Sheet1!$A:$A,D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2983,12 +2494,8 @@
       <c r="N8" t="s">
         <v>510</v>
       </c>
-      <c r="O8">
-        <f>COUNTIF([1]Sheet1!$A:$A,D8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3031,12 +2538,8 @@
       <c r="N9" t="s">
         <v>512</v>
       </c>
-      <c r="O9">
-        <f>COUNTIF([1]Sheet1!$A:$A,D9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3070,12 +2573,8 @@
       <c r="N10" t="s">
         <v>510</v>
       </c>
-      <c r="O10">
-        <f>COUNTIF([1]Sheet1!$A:$A,D10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3109,12 +2608,8 @@
       <c r="N11" t="s">
         <v>513</v>
       </c>
-      <c r="O11">
-        <f>COUNTIF([1]Sheet1!$A:$A,D11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3157,12 +2652,8 @@
       <c r="N12" t="s">
         <v>514</v>
       </c>
-      <c r="O12">
-        <f>COUNTIF([1]Sheet1!$A:$A,D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3205,12 +2696,8 @@
       <c r="N13" t="s">
         <v>515</v>
       </c>
-      <c r="O13">
-        <f>COUNTIF([1]Sheet1!$A:$A,D13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3244,12 +2731,8 @@
       <c r="N14" t="s">
         <v>513</v>
       </c>
-      <c r="O14">
-        <f>COUNTIF([1]Sheet1!$A:$A,D14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3292,12 +2775,8 @@
       <c r="N15" t="s">
         <v>516</v>
       </c>
-      <c r="O15">
-        <f>COUNTIF([1]Sheet1!$A:$A,D15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3340,12 +2819,8 @@
       <c r="N16" t="s">
         <v>517</v>
       </c>
-      <c r="O16">
-        <f>COUNTIF([1]Sheet1!$A:$A,D16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3388,12 +2863,8 @@
       <c r="N17" t="s">
         <v>518</v>
       </c>
-      <c r="O17">
-        <f>COUNTIF([1]Sheet1!$A:$A,D17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3436,12 +2907,8 @@
       <c r="N18" t="s">
         <v>519</v>
       </c>
-      <c r="O18">
-        <f>COUNTIF([1]Sheet1!$A:$A,D18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3484,12 +2951,8 @@
       <c r="N19" t="s">
         <v>520</v>
       </c>
-      <c r="O19">
-        <f>COUNTIF([1]Sheet1!$A:$A,D19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3532,12 +2995,8 @@
       <c r="N20" t="s">
         <v>521</v>
       </c>
-      <c r="O20">
-        <f>COUNTIF([1]Sheet1!$A:$A,D20)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3580,12 +3039,8 @@
       <c r="N21" t="s">
         <v>522</v>
       </c>
-      <c r="O21">
-        <f>COUNTIF([1]Sheet1!$A:$A,D21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3628,12 +3083,8 @@
       <c r="N22" t="s">
         <v>523</v>
       </c>
-      <c r="O22">
-        <f>COUNTIF([1]Sheet1!$A:$A,D22)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3676,12 +3127,8 @@
       <c r="N23" t="s">
         <v>524</v>
       </c>
-      <c r="O23">
-        <f>COUNTIF([1]Sheet1!$A:$A,D23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3724,12 +3171,8 @@
       <c r="N24" t="s">
         <v>525</v>
       </c>
-      <c r="O24">
-        <f>COUNTIF([1]Sheet1!$A:$A,D24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3772,12 +3215,8 @@
       <c r="N25" t="s">
         <v>526</v>
       </c>
-      <c r="O25">
-        <f>COUNTIF([1]Sheet1!$A:$A,D25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3820,12 +3259,8 @@
       <c r="N26" t="s">
         <v>527</v>
       </c>
-      <c r="O26">
-        <f>COUNTIF([1]Sheet1!$A:$A,D26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3868,12 +3303,8 @@
       <c r="N27" t="s">
         <v>528</v>
       </c>
-      <c r="O27">
-        <f>COUNTIF([1]Sheet1!$A:$A,D27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3907,12 +3338,8 @@
       <c r="N28" t="s">
         <v>513</v>
       </c>
-      <c r="O28">
-        <f>COUNTIF([1]Sheet1!$A:$A,D28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3955,12 +3382,8 @@
       <c r="N29" t="s">
         <v>529</v>
       </c>
-      <c r="O29">
-        <f>COUNTIF([1]Sheet1!$A:$A,D29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4003,12 +3426,8 @@
       <c r="N30" t="s">
         <v>530</v>
       </c>
-      <c r="O30">
-        <f>COUNTIF([1]Sheet1!$A:$A,D30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4051,12 +3470,8 @@
       <c r="N31" t="s">
         <v>531</v>
       </c>
-      <c r="O31">
-        <f>COUNTIF([1]Sheet1!$A:$A,D31)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4099,12 +3514,8 @@
       <c r="N32" t="s">
         <v>532</v>
       </c>
-      <c r="O32">
-        <f>COUNTIF([1]Sheet1!$A:$A,D32)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4147,12 +3558,8 @@
       <c r="N33" t="s">
         <v>533</v>
       </c>
-      <c r="O33">
-        <f>COUNTIF([1]Sheet1!$A:$A,D33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4195,12 +3602,8 @@
       <c r="N34" t="s">
         <v>534</v>
       </c>
-      <c r="O34">
-        <f>COUNTIF([1]Sheet1!$A:$A,D34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4243,12 +3646,8 @@
       <c r="N35" t="s">
         <v>535</v>
       </c>
-      <c r="O35">
-        <f>COUNTIF([1]Sheet1!$A:$A,D35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4291,12 +3690,8 @@
       <c r="N36" t="s">
         <v>536</v>
       </c>
-      <c r="O36">
-        <f>COUNTIF([1]Sheet1!$A:$A,D36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4339,12 +3734,8 @@
       <c r="N37" t="s">
         <v>510</v>
       </c>
-      <c r="O37">
-        <f>COUNTIF([1]Sheet1!$A:$A,D37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4387,12 +3778,8 @@
       <c r="N38" t="s">
         <v>537</v>
       </c>
-      <c r="O38">
-        <f>COUNTIF([1]Sheet1!$A:$A,D38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4435,12 +3822,8 @@
       <c r="N39" t="s">
         <v>538</v>
       </c>
-      <c r="O39">
-        <f>COUNTIF([1]Sheet1!$A:$A,D39)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4483,12 +3866,8 @@
       <c r="N40" t="s">
         <v>539</v>
       </c>
-      <c r="O40">
-        <f>COUNTIF([1]Sheet1!$A:$A,D40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4531,12 +3910,8 @@
       <c r="N41" t="s">
         <v>540</v>
       </c>
-      <c r="O41">
-        <f>COUNTIF([1]Sheet1!$A:$A,D41)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4570,12 +3945,8 @@
       <c r="N42" t="s">
         <v>510</v>
       </c>
-      <c r="O42">
-        <f>COUNTIF([1]Sheet1!$A:$A,D42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4609,12 +3980,8 @@
       <c r="N43" t="s">
         <v>513</v>
       </c>
-      <c r="O43">
-        <f>COUNTIF([1]Sheet1!$A:$A,D43)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4657,12 +4024,8 @@
       <c r="N44" t="s">
         <v>541</v>
       </c>
-      <c r="O44">
-        <f>COUNTIF([1]Sheet1!$A:$A,D44)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4705,12 +4068,8 @@
       <c r="N45" t="s">
         <v>542</v>
       </c>
-      <c r="O45">
-        <f>COUNTIF([1]Sheet1!$A:$A,D45)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4753,12 +4112,8 @@
       <c r="N46" t="s">
         <v>543</v>
       </c>
-      <c r="O46">
-        <f>COUNTIF([1]Sheet1!$A:$A,D46)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4801,12 +4156,8 @@
       <c r="N47" t="s">
         <v>544</v>
       </c>
-      <c r="O47">
-        <f>COUNTIF([1]Sheet1!$A:$A,D47)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4849,12 +4200,8 @@
       <c r="N48" t="s">
         <v>538</v>
       </c>
-      <c r="O48">
-        <f>COUNTIF([1]Sheet1!$A:$A,D48)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4897,12 +4244,8 @@
       <c r="N49" t="s">
         <v>545</v>
       </c>
-      <c r="O49">
-        <f>COUNTIF([1]Sheet1!$A:$A,D49)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4945,12 +4288,8 @@
       <c r="N50" t="s">
         <v>546</v>
       </c>
-      <c r="O50">
-        <f>COUNTIF([1]Sheet1!$A:$A,D50)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4993,12 +4332,8 @@
       <c r="N51" t="s">
         <v>547</v>
       </c>
-      <c r="O51">
-        <f>COUNTIF([1]Sheet1!$A:$A,D51)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5041,12 +4376,8 @@
       <c r="N52" t="s">
         <v>548</v>
       </c>
-      <c r="O52">
-        <f>COUNTIF([1]Sheet1!$A:$A,D52)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5089,12 +4420,8 @@
       <c r="N53" t="s">
         <v>549</v>
       </c>
-      <c r="O53">
-        <f>COUNTIF([1]Sheet1!$A:$A,D53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5137,12 +4464,8 @@
       <c r="N54" t="s">
         <v>550</v>
       </c>
-      <c r="O54">
-        <f>COUNTIF([1]Sheet1!$A:$A,D54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5185,12 +4508,8 @@
       <c r="N55" t="s">
         <v>551</v>
       </c>
-      <c r="O55">
-        <f>COUNTIF([1]Sheet1!$A:$A,D55)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5233,12 +4552,8 @@
       <c r="N56" t="s">
         <v>552</v>
       </c>
-      <c r="O56">
-        <f>COUNTIF([1]Sheet1!$A:$A,D56)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5272,12 +4587,8 @@
       <c r="N57" t="s">
         <v>510</v>
       </c>
-      <c r="O57">
-        <f>COUNTIF([1]Sheet1!$A:$A,D57)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5320,12 +4631,8 @@
       <c r="N58" t="s">
         <v>553</v>
       </c>
-      <c r="O58">
-        <f>COUNTIF([1]Sheet1!$A:$A,D58)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5368,12 +4675,8 @@
       <c r="N59" t="s">
         <v>554</v>
       </c>
-      <c r="O59">
-        <f>COUNTIF([1]Sheet1!$A:$A,D59)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5416,12 +4719,8 @@
       <c r="N60" t="s">
         <v>555</v>
       </c>
-      <c r="O60">
-        <f>COUNTIF([1]Sheet1!$A:$A,D60)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5464,12 +4763,8 @@
       <c r="N61" t="s">
         <v>556</v>
       </c>
-      <c r="O61">
-        <f>COUNTIF([1]Sheet1!$A:$A,D61)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5512,12 +4807,8 @@
       <c r="N62" t="s">
         <v>557</v>
       </c>
-      <c r="O62">
-        <f>COUNTIF([1]Sheet1!$A:$A,D62)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5560,12 +4851,8 @@
       <c r="N63" t="s">
         <v>558</v>
       </c>
-      <c r="O63">
-        <f>COUNTIF([1]Sheet1!$A:$A,D63)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5608,12 +4895,8 @@
       <c r="N64" t="s">
         <v>559</v>
       </c>
-      <c r="O64">
-        <f>COUNTIF([1]Sheet1!$A:$A,D64)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5656,12 +4939,8 @@
       <c r="N65" t="s">
         <v>560</v>
       </c>
-      <c r="O65">
-        <f>COUNTIF([1]Sheet1!$A:$A,D65)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5704,12 +4983,8 @@
       <c r="N66" t="s">
         <v>561</v>
       </c>
-      <c r="O66">
-        <f>COUNTIF([1]Sheet1!$A:$A,D66)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5752,12 +5027,8 @@
       <c r="N67" t="s">
         <v>562</v>
       </c>
-      <c r="O67">
-        <f>COUNTIF([1]Sheet1!$A:$A,D67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5800,12 +5071,8 @@
       <c r="N68" t="s">
         <v>563</v>
       </c>
-      <c r="O68">
-        <f>COUNTIF([1]Sheet1!$A:$A,D68)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5848,12 +5115,8 @@
       <c r="N69" t="s">
         <v>564</v>
       </c>
-      <c r="O69">
-        <f>COUNTIF([1]Sheet1!$A:$A,D69)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5896,12 +5159,8 @@
       <c r="N70" t="s">
         <v>565</v>
       </c>
-      <c r="O70">
-        <f>COUNTIF([1]Sheet1!$A:$A,D70)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5944,12 +5203,8 @@
       <c r="N71" t="s">
         <v>510</v>
       </c>
-      <c r="O71">
-        <f>COUNTIF([1]Sheet1!$A:$A,D71)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5992,12 +5247,8 @@
       <c r="N72" t="s">
         <v>566</v>
       </c>
-      <c r="O72">
-        <f>COUNTIF([1]Sheet1!$A:$A,D72)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -6040,12 +5291,8 @@
       <c r="N73" t="s">
         <v>567</v>
       </c>
-      <c r="O73">
-        <f>COUNTIF([1]Sheet1!$A:$A,D73)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6088,12 +5335,8 @@
       <c r="N74" t="s">
         <v>568</v>
       </c>
-      <c r="O74">
-        <f>COUNTIF([1]Sheet1!$A:$A,D74)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6136,12 +5379,8 @@
       <c r="N75" t="s">
         <v>569</v>
       </c>
-      <c r="O75">
-        <f>COUNTIF([1]Sheet1!$A:$A,D75)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6184,12 +5423,8 @@
       <c r="N76" t="s">
         <v>570</v>
       </c>
-      <c r="O76">
-        <f>COUNTIF([1]Sheet1!$A:$A,D76)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6232,12 +5467,8 @@
       <c r="N77" t="s">
         <v>571</v>
       </c>
-      <c r="O77">
-        <f>COUNTIF([1]Sheet1!$A:$A,D77)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6280,12 +5511,8 @@
       <c r="N78" t="s">
         <v>572</v>
       </c>
-      <c r="O78">
-        <f>COUNTIF([1]Sheet1!$A:$A,D78)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6328,12 +5555,8 @@
       <c r="N79" t="s">
         <v>573</v>
       </c>
-      <c r="O79">
-        <f>COUNTIF([1]Sheet1!$A:$A,D79)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6376,12 +5599,8 @@
       <c r="N80" t="s">
         <v>574</v>
       </c>
-      <c r="O80">
-        <f>COUNTIF([1]Sheet1!$A:$A,D80)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6415,12 +5634,8 @@
       <c r="N81" t="s">
         <v>513</v>
       </c>
-      <c r="O81">
-        <f>COUNTIF([1]Sheet1!$A:$A,D81)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6463,12 +5678,8 @@
       <c r="N82" t="s">
         <v>575</v>
       </c>
-      <c r="O82">
-        <f>COUNTIF([1]Sheet1!$A:$A,D82)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6511,12 +5722,8 @@
       <c r="N83" t="s">
         <v>576</v>
       </c>
-      <c r="O83">
-        <f>COUNTIF([1]Sheet1!$A:$A,D83)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6559,12 +5766,8 @@
       <c r="N84" t="s">
         <v>510</v>
       </c>
-      <c r="O84">
-        <f>COUNTIF([1]Sheet1!$A:$A,D84)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6607,12 +5810,8 @@
       <c r="N85" t="s">
         <v>577</v>
       </c>
-      <c r="O85">
-        <f>COUNTIF([1]Sheet1!$A:$A,D85)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6655,12 +5854,8 @@
       <c r="N86" t="s">
         <v>578</v>
       </c>
-      <c r="O86">
-        <f>COUNTIF([1]Sheet1!$A:$A,D86)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6703,12 +5898,8 @@
       <c r="N87" t="s">
         <v>579</v>
       </c>
-      <c r="O87">
-        <f>COUNTIF([1]Sheet1!$A:$A,D87)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6751,13 +5942,9 @@
       <c r="N88" t="s">
         <v>580</v>
       </c>
-      <c r="O88">
-        <f>COUNTIF([1]Sheet1!$A:$A,D88)</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
